--- a/resources/Dates_W20A.xlsx
+++ b/resources/Dates_W20A.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
   <si>
     <t>url</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Comparing Two Models</t>
   </si>
   <si>
-    <t>ANOVA1 -- Foundational Concepts</t>
-  </si>
-  <si>
     <t>ANOVA1 -- Multiple Comparisons</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>ANOVA1 -- Summary</t>
   </si>
   <si>
-    <t xml:space="preserve">ANOVA2 -- </t>
-  </si>
-  <si>
     <t xml:space="preserve">SLR -- </t>
   </si>
   <si>
@@ -126,6 +120,33 @@
   </si>
   <si>
     <t>Final Exam</t>
+  </si>
+  <si>
+    <t>ANOVA2 -- Conceptual Foundation</t>
+  </si>
+  <si>
+    <t>ANOVA2 -- Analytical Foundation</t>
+  </si>
+  <si>
+    <t>ANOVA2 -- Analysis</t>
+  </si>
+  <si>
+    <t>ANOVA2 -- Summary</t>
+  </si>
+  <si>
+    <t>ANOVA1 -- Conceptual Foundation</t>
+  </si>
+  <si>
+    <t>ANOVA2Foundations1</t>
+  </si>
+  <si>
+    <t>ANOVA2Foundations2</t>
+  </si>
+  <si>
+    <t>ANOVA2Analysis</t>
+  </si>
+  <si>
+    <t>ANOVA2Summary</t>
   </si>
 </sst>
 </file>
@@ -510,13 +531,13 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -565,7 +586,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -583,7 +604,7 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -601,7 +622,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -619,7 +640,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -634,10 +655,10 @@
         <v>44223</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -652,10 +673,10 @@
         <v>44224</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -670,10 +691,10 @@
         <v>44225</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -688,10 +709,10 @@
         <v>44228</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -706,10 +727,10 @@
         <v>44229</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -724,7 +745,10 @@
         <v>44230</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -739,7 +763,10 @@
         <v>44231</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -754,14 +781,17 @@
         <v>44232</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="1">
@@ -769,14 +799,17 @@
         <v>44235</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="1">
@@ -784,14 +817,14 @@
         <v>44236</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="1">
@@ -799,14 +832,14 @@
         <v>44237</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="1">
@@ -814,14 +847,14 @@
         <v>44238</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="1">
@@ -829,14 +862,14 @@
         <v>44239</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="1">
@@ -844,44 +877,44 @@
         <v>44242</v>
       </c>
       <c r="D20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>44243</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
+      <c r="B22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="0"/>
+        <v>44244</v>
+      </c>
+      <c r="D22" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="1">
-        <f t="shared" si="0"/>
-        <v>44243</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
-        <v>21</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="1">
-        <f t="shared" si="0"/>
-        <v>44244</v>
-      </c>
-      <c r="D22" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
-        <v>22</v>
-      </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="1">
@@ -889,14 +922,14 @@
         <v>44245</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="1">
@@ -904,7 +937,7 @@
         <v>44246</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -919,7 +952,7 @@
         <v>44249</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -934,7 +967,7 @@
         <v>44250</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -949,7 +982,7 @@
         <v>44251</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -964,7 +997,7 @@
         <v>44252</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -979,7 +1012,7 @@
         <v>44253</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -994,7 +1027,7 @@
         <v>44256</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1009,7 +1042,7 @@
         <v>44257</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1017,14 +1050,14 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="0"/>
         <v>44258</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1032,14 +1065,14 @@
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="0"/>
         <v>44259</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1047,14 +1080,14 @@
         <v>32</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="0"/>
         <v>44260</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Dates_W20A.xlsx
+++ b/resources/Dates_W20A.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="52">
   <si>
     <t>url</t>
   </si>
@@ -83,9 +83,6 @@
     <t>ANOVA1 -- Summary</t>
   </si>
   <si>
-    <t xml:space="preserve">SLR -- </t>
-  </si>
-  <si>
     <t xml:space="preserve">IVR -- </t>
   </si>
   <si>
@@ -147,6 +144,42 @@
   </si>
   <si>
     <t>ANOVA2Summary</t>
+  </si>
+  <si>
+    <t>SLR -- Foundations</t>
+  </si>
+  <si>
+    <t>SLR -- Inference</t>
+  </si>
+  <si>
+    <t>SLR -- Models</t>
+  </si>
+  <si>
+    <t>SLR -- Assumptions</t>
+  </si>
+  <si>
+    <t>SLR -- Summary</t>
+  </si>
+  <si>
+    <t>SLR -- Transformations</t>
+  </si>
+  <si>
+    <t>SLRFoundations</t>
+  </si>
+  <si>
+    <t>SLRInference</t>
+  </si>
+  <si>
+    <t>SLRModels</t>
+  </si>
+  <si>
+    <t>SLRAssumptions</t>
+  </si>
+  <si>
+    <t>SLRTransformations</t>
+  </si>
+  <si>
+    <t>SLRSummary</t>
   </si>
 </sst>
 </file>
@@ -531,7 +564,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,7 +619,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -604,7 +637,7 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -622,7 +655,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -640,7 +673,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -655,10 +688,10 @@
         <v>44223</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -676,7 +709,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -694,7 +727,7 @@
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -712,7 +745,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -730,7 +763,7 @@
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -745,10 +778,10 @@
         <v>44230</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -763,10 +796,10 @@
         <v>44231</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -781,10 +814,10 @@
         <v>44232</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -799,10 +832,10 @@
         <v>44235</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -817,10 +850,13 @@
         <v>44236</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -832,10 +868,13 @@
         <v>44237</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -847,10 +886,13 @@
         <v>44238</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -862,10 +904,13 @@
         <v>44239</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -877,10 +922,13 @@
         <v>44242</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -892,10 +940,13 @@
         <v>44243</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -907,10 +958,10 @@
         <v>44244</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -922,10 +973,10 @@
         <v>44245</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -937,10 +988,10 @@
         <v>44246</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -952,10 +1003,10 @@
         <v>44249</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -967,10 +1018,10 @@
         <v>44250</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -982,10 +1033,10 @@
         <v>44251</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -997,10 +1048,10 @@
         <v>44252</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1012,10 +1063,10 @@
         <v>44253</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -1027,10 +1078,10 @@
         <v>44256</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -1042,10 +1093,10 @@
         <v>44257</v>
       </c>
       <c r="D31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -1057,7 +1108,7 @@
         <v>44258</v>
       </c>
       <c r="D32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1072,7 +1123,7 @@
         <v>44259</v>
       </c>
       <c r="D33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1087,7 +1138,7 @@
         <v>44260</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Dates_W20A.xlsx
+++ b/resources/Dates_W20A.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
   <si>
     <t>url</t>
   </si>
@@ -83,9 +83,6 @@
     <t>ANOVA1 -- Summary</t>
   </si>
   <si>
-    <t xml:space="preserve">IVR -- </t>
-  </si>
-  <si>
     <t>Logistic --</t>
   </si>
   <si>
@@ -180,6 +177,36 @@
   </si>
   <si>
     <t>SLRSummary</t>
+  </si>
+  <si>
+    <t>IVR -- Variables</t>
+  </si>
+  <si>
+    <t>IVR -- Models</t>
+  </si>
+  <si>
+    <t>IVR -- Testing</t>
+  </si>
+  <si>
+    <t>IVR -- Summary</t>
+  </si>
+  <si>
+    <t>IVR -- Analysis</t>
+  </si>
+  <si>
+    <t>IVRVariables</t>
+  </si>
+  <si>
+    <t>IVRModels</t>
+  </si>
+  <si>
+    <t>IVRTesting</t>
+  </si>
+  <si>
+    <t>IVRAnalysis</t>
+  </si>
+  <si>
+    <t>IVRSummary</t>
   </si>
 </sst>
 </file>
@@ -564,7 +591,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,7 +646,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -637,7 +664,7 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -655,7 +682,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -673,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -688,10 +715,10 @@
         <v>44223</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -709,7 +736,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -727,7 +754,7 @@
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -745,7 +772,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -763,7 +790,7 @@
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -778,10 +805,10 @@
         <v>44230</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -796,10 +823,10 @@
         <v>44231</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -814,10 +841,10 @@
         <v>44232</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -832,10 +859,10 @@
         <v>44235</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -850,10 +877,10 @@
         <v>44236</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -868,10 +895,10 @@
         <v>44237</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -886,10 +913,10 @@
         <v>44238</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -904,10 +931,10 @@
         <v>44239</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -922,10 +949,10 @@
         <v>44242</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -940,10 +967,10 @@
         <v>44243</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -958,7 +985,10 @@
         <v>44244</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -973,7 +1003,10 @@
         <v>44245</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>52</v>
+      </c>
+      <c r="E23" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -988,7 +1021,10 @@
         <v>44246</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1003,7 +1039,10 @@
         <v>44249</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>55</v>
+      </c>
+      <c r="E25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1018,7 +1057,10 @@
         <v>44250</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>54</v>
+      </c>
+      <c r="E26" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1033,7 +1075,7 @@
         <v>44251</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1048,7 +1090,7 @@
         <v>44252</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1063,7 +1105,7 @@
         <v>44253</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1078,7 +1120,7 @@
         <v>44256</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1093,7 +1135,7 @@
         <v>44257</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1108,7 +1150,7 @@
         <v>44258</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1123,7 +1165,7 @@
         <v>44259</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1138,7 +1180,7 @@
         <v>44260</v>
       </c>
       <c r="D34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Dates_W20A.xlsx
+++ b/resources/Dates_W20A.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
   <si>
     <t>url</t>
   </si>
@@ -83,9 +83,6 @@
     <t>ANOVA1 -- Summary</t>
   </si>
   <si>
-    <t>Logistic --</t>
-  </si>
-  <si>
     <t>ModelTypes</t>
   </si>
   <si>
@@ -207,6 +204,30 @@
   </si>
   <si>
     <t>IVRSummary</t>
+  </si>
+  <si>
+    <t>Logistic -- Foundations</t>
+  </si>
+  <si>
+    <t>Logistic -- Model</t>
+  </si>
+  <si>
+    <t>LogRegFoundations</t>
+  </si>
+  <si>
+    <t>LogRegModel</t>
+  </si>
+  <si>
+    <t>Logistic -- Analysis</t>
+  </si>
+  <si>
+    <t>LogRegAnalysis</t>
+  </si>
+  <si>
+    <t>Logistic -- Summary</t>
+  </si>
+  <si>
+    <t>LogRegSummary</t>
   </si>
 </sst>
 </file>
@@ -590,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,7 +667,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -664,7 +685,7 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -682,7 +703,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -700,7 +721,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -715,10 +736,10 @@
         <v>44223</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -736,7 +757,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -754,7 +775,7 @@
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -772,7 +793,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -790,7 +811,7 @@
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -805,10 +826,10 @@
         <v>44230</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -823,10 +844,10 @@
         <v>44231</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -841,10 +862,10 @@
         <v>44232</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -859,10 +880,10 @@
         <v>44235</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -877,10 +898,10 @@
         <v>44236</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -895,10 +916,10 @@
         <v>44237</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -913,10 +934,10 @@
         <v>44238</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -931,10 +952,10 @@
         <v>44239</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -949,10 +970,10 @@
         <v>44242</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -967,10 +988,10 @@
         <v>44243</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -985,10 +1006,10 @@
         <v>44244</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1003,10 +1024,10 @@
         <v>44245</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1021,10 +1042,10 @@
         <v>44246</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1039,10 +1060,10 @@
         <v>44249</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1057,10 +1078,10 @@
         <v>44250</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1075,7 +1096,10 @@
         <v>44251</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>60</v>
+      </c>
+      <c r="E27" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1090,7 +1114,10 @@
         <v>44252</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>61</v>
+      </c>
+      <c r="E28" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1105,7 +1132,10 @@
         <v>44253</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>64</v>
+      </c>
+      <c r="E29" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1120,7 +1150,10 @@
         <v>44256</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>66</v>
+      </c>
+      <c r="E30" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1135,7 +1168,7 @@
         <v>44257</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1150,7 +1183,7 @@
         <v>44258</v>
       </c>
       <c r="D32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1165,7 +1198,7 @@
         <v>44259</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1180,7 +1213,7 @@
         <v>44260</v>
       </c>
       <c r="D34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
